--- a/events_export.xlsx
+++ b/events_export.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,42 +452,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
-    <col width="32" customWidth="1" min="2" max="2"/>
-    <col width="32" customWidth="1" min="3" max="3"/>
-    <col width="32" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>علی بزه گاو منه</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>من یک رویداد هستم</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>مشسی</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>g,g,g</t>
+          <t>علی بزه خرمجه</t>
         </is>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1">
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>محمد متین غیاثوند(6001011)</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>محمد متین غیاثوند(6001011)</t>
+          <t>محمد متین غیاثوند(3001902)</t>
         </is>
       </c>
     </row>

--- a/events_export.xlsx
+++ b/events_export.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -39,14 +39,8 @@
         <bgColor rgb="0054b4d3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00d0f0c0"/>
-        <bgColor rgb="00d0f0c0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,22 +54,13 @@
       <top style="thick"/>
       <bottom style="thick"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,13 +446,6 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="28" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>محمد متین غیاثوند(3001902)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
